--- a/medicine/Psychotrope/Cuvée_St._Antoine/Cuvée_St._Antoine.xlsx
+++ b/medicine/Psychotrope/Cuvée_St._Antoine/Cuvée_St._Antoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuv%C3%A9e_St._Antoine</t>
+          <t>Cuvée_St._Antoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cuvée St. Antoine est une bière belge de haute fermentation.
 Cette bière artisanale est brassée par la brasserie du Flo pour le compte de la Confrérie de l'ordre de Saint Antoine de Blehen. Le brassin se fait à Blehen (Hannut) depuis 2005. Auparavant, le brassage était réalisé par la brasserie du Bocq à Purnode et par la brasserie Van Steenberge à Ertvelde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuv%C3%A9e_St._Antoine</t>
+          <t>Cuvée_St._Antoine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Blonde, blonde dorée avec une teneur en alcool de 7,5 %
 Brune, bière brune avec une teneur en alcool de 9 %</t>
